--- a/crawl/data/melon_top100_excel.xlsx
+++ b/crawl/data/melon_top100_excel.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="챠트목록" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Image 목록" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chart List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Image List" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Top10 Chart" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -867,12 +867,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>챠트목록!$B$2:$B$11</f>
+              <f>'Chart List'!$B$2:$B$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>챠트목록!$D$2:$D$11</f>
+              <f>'Chart List'!$D$2:$D$11</f>
             </numRef>
           </val>
         </ser>
@@ -920,7 +920,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>챠트목록!E1</f>
+              <f>'Chart List'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -938,12 +938,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>챠트목록!$A$2:$A$11</f>
+              <f>'Chart List'!$A$2:$A$11</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>챠트목록!$E$2:$E$11</f>
+              <f>'Chart List'!$E$2:$E$11</f>
             </numRef>
           </yVal>
         </ser>
@@ -3515,7 +3515,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>3</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
@@ -3537,7 +3537,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>3</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>

--- a/crawl/data/melon_top100_excel.xlsx
+++ b/crawl/data/melon_top100_excel.xlsx
@@ -496,298 +496,298 @@
     <t>Top1 Image</t>
   </si>
   <si>
+    <t>Top11 Image</t>
+  </si>
+  <si>
+    <t>Top21 Image</t>
+  </si>
+  <si>
+    <t>Top31 Image</t>
+  </si>
+  <si>
+    <t>Top41 Image</t>
+  </si>
+  <si>
+    <t>Top51 Image</t>
+  </si>
+  <si>
+    <t>Top61 Image</t>
+  </si>
+  <si>
+    <t>Top71 Image</t>
+  </si>
+  <si>
+    <t>Top81 Image</t>
+  </si>
+  <si>
+    <t>Top91 Image</t>
+  </si>
+  <si>
     <t>Top2 Image</t>
   </si>
   <si>
+    <t>Top12 Image</t>
+  </si>
+  <si>
+    <t>Top22 Image</t>
+  </si>
+  <si>
+    <t>Top32 Image</t>
+  </si>
+  <si>
+    <t>Top42 Image</t>
+  </si>
+  <si>
+    <t>Top52 Image</t>
+  </si>
+  <si>
+    <t>Top62 Image</t>
+  </si>
+  <si>
+    <t>Top72 Image</t>
+  </si>
+  <si>
+    <t>Top82 Image</t>
+  </si>
+  <si>
+    <t>Top92 Image</t>
+  </si>
+  <si>
     <t>Top3 Image</t>
   </si>
   <si>
+    <t>Top13 Image</t>
+  </si>
+  <si>
+    <t>Top23 Image</t>
+  </si>
+  <si>
+    <t>Top33 Image</t>
+  </si>
+  <si>
+    <t>Top43 Image</t>
+  </si>
+  <si>
+    <t>Top53 Image</t>
+  </si>
+  <si>
+    <t>Top63 Image</t>
+  </si>
+  <si>
+    <t>Top73 Image</t>
+  </si>
+  <si>
+    <t>Top83 Image</t>
+  </si>
+  <si>
+    <t>Top93 Image</t>
+  </si>
+  <si>
     <t>Top4 Image</t>
   </si>
   <si>
+    <t>Top14 Image</t>
+  </si>
+  <si>
+    <t>Top24 Image</t>
+  </si>
+  <si>
+    <t>Top34 Image</t>
+  </si>
+  <si>
+    <t>Top44 Image</t>
+  </si>
+  <si>
+    <t>Top54 Image</t>
+  </si>
+  <si>
+    <t>Top64 Image</t>
+  </si>
+  <si>
+    <t>Top74 Image</t>
+  </si>
+  <si>
+    <t>Top84 Image</t>
+  </si>
+  <si>
+    <t>Top94 Image</t>
+  </si>
+  <si>
     <t>Top5 Image</t>
   </si>
   <si>
+    <t>Top15 Image</t>
+  </si>
+  <si>
+    <t>Top25 Image</t>
+  </si>
+  <si>
+    <t>Top35 Image</t>
+  </si>
+  <si>
+    <t>Top45 Image</t>
+  </si>
+  <si>
+    <t>Top55 Image</t>
+  </si>
+  <si>
+    <t>Top65 Image</t>
+  </si>
+  <si>
+    <t>Top75 Image</t>
+  </si>
+  <si>
+    <t>Top85 Image</t>
+  </si>
+  <si>
+    <t>Top95 Image</t>
+  </si>
+  <si>
     <t>Top6 Image</t>
   </si>
   <si>
+    <t>Top16 Image</t>
+  </si>
+  <si>
+    <t>Top26 Image</t>
+  </si>
+  <si>
+    <t>Top36 Image</t>
+  </si>
+  <si>
+    <t>Top46 Image</t>
+  </si>
+  <si>
+    <t>Top56 Image</t>
+  </si>
+  <si>
+    <t>Top66 Image</t>
+  </si>
+  <si>
+    <t>Top76 Image</t>
+  </si>
+  <si>
+    <t>Top86 Image</t>
+  </si>
+  <si>
+    <t>Top96 Image</t>
+  </si>
+  <si>
     <t>Top7 Image</t>
   </si>
   <si>
+    <t>Top17 Image</t>
+  </si>
+  <si>
+    <t>Top27 Image</t>
+  </si>
+  <si>
+    <t>Top37 Image</t>
+  </si>
+  <si>
+    <t>Top47 Image</t>
+  </si>
+  <si>
+    <t>Top57 Image</t>
+  </si>
+  <si>
+    <t>Top67 Image</t>
+  </si>
+  <si>
+    <t>Top77 Image</t>
+  </si>
+  <si>
+    <t>Top87 Image</t>
+  </si>
+  <si>
+    <t>Top97 Image</t>
+  </si>
+  <si>
     <t>Top8 Image</t>
   </si>
   <si>
+    <t>Top18 Image</t>
+  </si>
+  <si>
+    <t>Top28 Image</t>
+  </si>
+  <si>
+    <t>Top38 Image</t>
+  </si>
+  <si>
+    <t>Top48 Image</t>
+  </si>
+  <si>
+    <t>Top58 Image</t>
+  </si>
+  <si>
+    <t>Top68 Image</t>
+  </si>
+  <si>
+    <t>Top78 Image</t>
+  </si>
+  <si>
+    <t>Top88 Image</t>
+  </si>
+  <si>
+    <t>Top98 Image</t>
+  </si>
+  <si>
     <t>Top9 Image</t>
   </si>
   <si>
+    <t>Top19 Image</t>
+  </si>
+  <si>
+    <t>Top29 Image</t>
+  </si>
+  <si>
+    <t>Top39 Image</t>
+  </si>
+  <si>
+    <t>Top49 Image</t>
+  </si>
+  <si>
+    <t>Top59 Image</t>
+  </si>
+  <si>
+    <t>Top69 Image</t>
+  </si>
+  <si>
+    <t>Top79 Image</t>
+  </si>
+  <si>
+    <t>Top89 Image</t>
+  </si>
+  <si>
+    <t>Top99 Image</t>
+  </si>
+  <si>
     <t>Top10 Image</t>
   </si>
   <si>
-    <t>Top11 Image</t>
-  </si>
-  <si>
-    <t>Top12 Image</t>
-  </si>
-  <si>
-    <t>Top13 Image</t>
-  </si>
-  <si>
-    <t>Top14 Image</t>
-  </si>
-  <si>
-    <t>Top15 Image</t>
-  </si>
-  <si>
-    <t>Top16 Image</t>
-  </si>
-  <si>
-    <t>Top17 Image</t>
-  </si>
-  <si>
-    <t>Top18 Image</t>
-  </si>
-  <si>
-    <t>Top19 Image</t>
-  </si>
-  <si>
     <t>Top20 Image</t>
   </si>
   <si>
-    <t>Top21 Image</t>
-  </si>
-  <si>
-    <t>Top22 Image</t>
-  </si>
-  <si>
-    <t>Top23 Image</t>
-  </si>
-  <si>
-    <t>Top24 Image</t>
-  </si>
-  <si>
-    <t>Top25 Image</t>
-  </si>
-  <si>
-    <t>Top26 Image</t>
-  </si>
-  <si>
-    <t>Top27 Image</t>
-  </si>
-  <si>
-    <t>Top28 Image</t>
-  </si>
-  <si>
-    <t>Top29 Image</t>
-  </si>
-  <si>
     <t>Top30 Image</t>
   </si>
   <si>
-    <t>Top31 Image</t>
-  </si>
-  <si>
-    <t>Top32 Image</t>
-  </si>
-  <si>
-    <t>Top33 Image</t>
-  </si>
-  <si>
-    <t>Top34 Image</t>
-  </si>
-  <si>
-    <t>Top35 Image</t>
-  </si>
-  <si>
-    <t>Top36 Image</t>
-  </si>
-  <si>
-    <t>Top37 Image</t>
-  </si>
-  <si>
-    <t>Top38 Image</t>
-  </si>
-  <si>
-    <t>Top39 Image</t>
-  </si>
-  <si>
     <t>Top40 Image</t>
   </si>
   <si>
-    <t>Top41 Image</t>
-  </si>
-  <si>
-    <t>Top42 Image</t>
-  </si>
-  <si>
-    <t>Top43 Image</t>
-  </si>
-  <si>
-    <t>Top44 Image</t>
-  </si>
-  <si>
-    <t>Top45 Image</t>
-  </si>
-  <si>
-    <t>Top46 Image</t>
-  </si>
-  <si>
-    <t>Top47 Image</t>
-  </si>
-  <si>
-    <t>Top48 Image</t>
-  </si>
-  <si>
-    <t>Top49 Image</t>
-  </si>
-  <si>
     <t>Top50 Image</t>
   </si>
   <si>
-    <t>Top51 Image</t>
-  </si>
-  <si>
-    <t>Top52 Image</t>
-  </si>
-  <si>
-    <t>Top53 Image</t>
-  </si>
-  <si>
-    <t>Top54 Image</t>
-  </si>
-  <si>
-    <t>Top55 Image</t>
-  </si>
-  <si>
-    <t>Top56 Image</t>
-  </si>
-  <si>
-    <t>Top57 Image</t>
-  </si>
-  <si>
-    <t>Top58 Image</t>
-  </si>
-  <si>
-    <t>Top59 Image</t>
-  </si>
-  <si>
     <t>Top60 Image</t>
   </si>
   <si>
-    <t>Top61 Image</t>
-  </si>
-  <si>
-    <t>Top62 Image</t>
-  </si>
-  <si>
-    <t>Top63 Image</t>
-  </si>
-  <si>
-    <t>Top64 Image</t>
-  </si>
-  <si>
-    <t>Top65 Image</t>
-  </si>
-  <si>
-    <t>Top66 Image</t>
-  </si>
-  <si>
-    <t>Top67 Image</t>
-  </si>
-  <si>
-    <t>Top68 Image</t>
-  </si>
-  <si>
-    <t>Top69 Image</t>
-  </si>
-  <si>
     <t>Top70 Image</t>
   </si>
   <si>
-    <t>Top71 Image</t>
-  </si>
-  <si>
-    <t>Top72 Image</t>
-  </si>
-  <si>
-    <t>Top73 Image</t>
-  </si>
-  <si>
-    <t>Top74 Image</t>
-  </si>
-  <si>
-    <t>Top75 Image</t>
-  </si>
-  <si>
-    <t>Top76 Image</t>
-  </si>
-  <si>
-    <t>Top77 Image</t>
-  </si>
-  <si>
-    <t>Top78 Image</t>
-  </si>
-  <si>
-    <t>Top79 Image</t>
-  </si>
-  <si>
     <t>Top80 Image</t>
   </si>
   <si>
-    <t>Top81 Image</t>
-  </si>
-  <si>
-    <t>Top82 Image</t>
-  </si>
-  <si>
-    <t>Top83 Image</t>
-  </si>
-  <si>
-    <t>Top84 Image</t>
-  </si>
-  <si>
-    <t>Top85 Image</t>
-  </si>
-  <si>
-    <t>Top86 Image</t>
-  </si>
-  <si>
-    <t>Top87 Image</t>
-  </si>
-  <si>
-    <t>Top88 Image</t>
-  </si>
-  <si>
-    <t>Top89 Image</t>
-  </si>
-  <si>
     <t>Top90 Image</t>
-  </si>
-  <si>
-    <t>Top91 Image</t>
-  </si>
-  <si>
-    <t>Top92 Image</t>
-  </si>
-  <si>
-    <t>Top93 Image</t>
-  </si>
-  <si>
-    <t>Top94 Image</t>
-  </si>
-  <si>
-    <t>Top95 Image</t>
-  </si>
-  <si>
-    <t>Top96 Image</t>
-  </si>
-  <si>
-    <t>Top97 Image</t>
-  </si>
-  <si>
-    <t>Top98 Image</t>
-  </si>
-  <si>
-    <t>Top99 Image</t>
   </si>
   <si>
     <t>Top100 Image</t>
@@ -1010,19 +1010,269 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="6" name="Image 6"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="7" name="Image 7"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="8" name="Image 8"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="9" name="Image 9"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="10" name="Image 10"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="11" name="Image 11"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1037,17 +1287,17 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>6</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="12" name="Image 12"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,17 +1312,17 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="3" name="Image 3"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="13" name="Image 13"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1087,17 +1337,17 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="4" name="Image 4"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="14" name="Image 14"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1112,17 +1362,17 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="5" name="Image 5"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="15" name="Image 15"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1137,17 +1387,17 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="6" name="Image 6"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="16" name="Image 16"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1162,487 +1412,237 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="17" name="Image 17"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="18" name="Image 18"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="19" name="Image 19"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="20" name="Image 20"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="21" name="Image 21"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="22" name="Image 22"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="23" name="Image 23"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="24" name="Image 24"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="25" name="Image 25"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
       <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="7" name="Image 7"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>42</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="8" name="Image 8"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>48</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="9" name="Image 9"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>54</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="10" name="Image 10"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="11" name="Image 11"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>66</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="12" name="Image 12"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>72</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="13" name="Image 13"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="14" name="Image 14"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>84</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="15" name="Image 15"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>90</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="16" name="Image 16"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>96</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="17" name="Image 17"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>102</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="18" name="Image 18"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="19" name="Image 19"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>114</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="20" name="Image 20"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>120</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="21" name="Image 21"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>126</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="22" name="Image 22"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="23" name="Image 23"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>138</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="24" name="Image 24"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>144</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="25" name="Image 25"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>150</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="1143000"/>
-    <pic>
-      <nvPicPr>
         <cNvPr descr="Picture" id="26" name="Image 26"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -1660,9 +1660,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>156</row>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1685,9 +1685,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>162</row>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1710,9 +1710,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>168</row>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1735,9 +1735,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>174</row>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1760,9 +1760,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>180</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1785,9 +1785,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>186</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1810,9 +1810,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>192</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1835,9 +1835,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>198</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1860,9 +1860,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>204</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1885,9 +1885,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>210</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1910,9 +1910,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>216</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1935,9 +1935,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>222</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1960,9 +1960,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>228</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -1985,9 +1985,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>234</row>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2010,9 +2010,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>240</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2035,9 +2035,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>246</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2060,9 +2060,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>252</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2085,9 +2085,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>258</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2110,9 +2110,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>264</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2135,9 +2135,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>270</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2160,9 +2160,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>276</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2185,9 +2185,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>282</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2210,9 +2210,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>288</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2235,9 +2235,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>294</row>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2260,9 +2260,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>300</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2285,9 +2285,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>306</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2310,9 +2310,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>312</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2335,9 +2335,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>318</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2360,9 +2360,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>324</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2385,9 +2385,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>330</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2410,9 +2410,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>336</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2435,9 +2435,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>342</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2460,9 +2460,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>348</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2485,9 +2485,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>354</row>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2510,9 +2510,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>360</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2535,9 +2535,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>366</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2560,9 +2560,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>372</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2585,9 +2585,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>378</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2610,9 +2610,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>384</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2635,9 +2635,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>390</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2660,9 +2660,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>396</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2685,9 +2685,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>402</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2710,9 +2710,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>408</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2735,9 +2735,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>414</row>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2760,9 +2760,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>420</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2785,9 +2785,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>426</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2810,9 +2810,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>432</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2835,9 +2835,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>438</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2860,9 +2860,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>444</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2885,9 +2885,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>450</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2910,9 +2910,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>456</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2935,9 +2935,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>462</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2960,9 +2960,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>468</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -2985,9 +2985,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>474</row>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3010,9 +3010,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>480</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3035,9 +3035,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>486</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3060,9 +3060,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>492</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3085,9 +3085,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>498</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3110,9 +3110,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>504</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3135,9 +3135,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>510</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3160,9 +3160,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>516</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3185,9 +3185,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>522</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3210,9 +3210,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>528</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3235,9 +3235,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>534</row>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3260,9 +3260,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>540</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3285,9 +3285,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>546</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3310,9 +3310,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>552</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3335,9 +3335,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>558</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3360,9 +3360,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>564</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3385,9 +3385,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>570</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3410,9 +3410,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>576</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3435,9 +3435,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>582</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3460,9 +3460,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>588</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -3485,9 +3485,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>594</row>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
@@ -5598,7 +5598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A595"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5606,503 +5606,323 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="G1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="I1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="K1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="M1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="O1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>196</v>
+      </c>
+      <c r="S22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>206</v>
+      </c>
+      <c r="S29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36" t="s">
+        <v>214</v>
+      </c>
+      <c r="O36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>216</v>
+      </c>
+      <c r="S36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+      <c r="C43" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+      <c r="E43" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+      <c r="G43" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+      <c r="I43" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+      <c r="K43" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+      <c r="M43" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+      <c r="O43" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+      <c r="Q43" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+      <c r="S43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+      <c r="C50" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+      <c r="E50" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+      <c r="G50" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+      <c r="I50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
+      <c r="K50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
+      <c r="M50" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
+      <c r="O50" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
+      <c r="Q50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
+      <c r="S50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
+      <c r="C57" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
+      <c r="E57" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
+      <c r="G57" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="s">
+      <c r="I57" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" t="s">
+      <c r="K57" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" t="s">
+      <c r="M57" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" t="s">
+      <c r="O57" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="529" spans="1:1">
-      <c r="A529" t="s">
+      <c r="Q57" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" t="s">
+      <c r="S57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="s">
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" t="s">
+      <c r="C64" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" t="s">
+      <c r="E64" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" t="s">
+      <c r="G64" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
+      <c r="I64" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" t="s">
+      <c r="K64" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" t="s">
+      <c r="M64" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" t="s">
+      <c r="O64" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" t="s">
+      <c r="Q64" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595" t="s">
+      <c r="S64" t="s">
         <v>257</v>
       </c>
     </row>
